--- a/biology/Zoologie/Ablepharus_budaki/Ablepharus_budaki.xlsx
+++ b/biology/Zoologie/Ablepharus_budaki/Ablepharus_budaki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ablepharus budaki est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ablepharus budaki est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Turquie, en Syrie, au Liban et à Chypre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Turquie, en Syrie, au Liban et à Chypre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 juin 2012)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 juin 2012) :
 Ablepharus budaki anatolicus Schmidtler, 1997
 Ablepharus budaki budaki Göçmen, Kumlutas &amp; Tosunoglu, 1996</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été élevée au rang d'espèce par Schmidtler, 1997[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été élevée au rang d'espèce par Schmidtler, 1997.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Göçmen, Kumlutas &amp; Tosunoglu, 1996 : A New Subspecies, Ablepharus kitaibelii (Bibron &amp; Borry, 1833) budaki n. ssp. (Sauria: Scincidae) From the Turkish Republic of Northern Cyprus. Turkish Journal of Zoology, vol. 20, p. 397-405 (texte intégral).
 Schmidtler, 1997 : Die Ablepharus kitaibelii - Gruppe in Südanatolien und benachbarten Gebieten (Squamata: Sauria: Scincidae). Herpetozoa, vol. 10, no 1/2, p. 35-62 (texte intégral).</t>
